--- a/Bibliography.xlsx
+++ b/Bibliography.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Virtual Machine" sheetId="1" r:id="rId1"/>
+    <sheet name="Pentest Tools" sheetId="4" r:id="rId2"/>
+    <sheet name="Web Application Attacks" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Link</t>
   </si>
@@ -130,15 +130,6 @@
   </si>
   <si>
     <t>Introduction to social engineering</t>
-  </si>
-  <si>
-    <t>#Virtual Machines</t>
-  </si>
-  <si>
-    <t># Pentest Tools</t>
-  </si>
-  <si>
-    <t># Attacks</t>
   </si>
 </sst>
 </file>
@@ -510,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:D18"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,159 +516,70 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,24 +589,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bibliography.xlsx
+++ b/Bibliography.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Machine" sheetId="1" r:id="rId1"/>
     <sheet name="Pentest Tools" sheetId="4" r:id="rId2"/>
     <sheet name="Web Application Attacks" sheetId="5" r:id="rId3"/>
+    <sheet name="Pentest Vulnerable Lab" sheetId="7" r:id="rId4"/>
+    <sheet name="Pentest Report Sample" sheetId="8" r:id="rId5"/>
+    <sheet name="Selenium Documentation" sheetId="10" r:id="rId6"/>
+    <sheet name="Jinja2 Tutorial" sheetId="11" r:id="rId7"/>
+    <sheet name="Owasp Python Documentation" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Link</t>
   </si>
@@ -130,6 +135,96 @@
   </si>
   <si>
     <t>Introduction to social engineering</t>
+  </si>
+  <si>
+    <t>http://resources.infosecinstitute.com/hacking-lab/</t>
+  </si>
+  <si>
+    <t>Guide for Setting Up a Vulnerable Lab for Pentesting</t>
+  </si>
+  <si>
+    <t>Jay Turla</t>
+  </si>
+  <si>
+    <t>Guide for setting up a vulnerable web server for testing</t>
+  </si>
+  <si>
+    <t>Sample Penetration Test Report</t>
+  </si>
+  <si>
+    <t>Offensive Security</t>
+  </si>
+  <si>
+    <t>https://www.offensive-security.com/reports/sample-penetration-testing-report.pdf</t>
+  </si>
+  <si>
+    <t>Template for a Pentest Report</t>
+  </si>
+  <si>
+    <t>http://nvlpubs.nist.gov/nistpubs/Legacy/SP/nistspecialpublication800-115.pdf</t>
+  </si>
+  <si>
+    <t>Technical Guide to Information Security Testing and Assessment</t>
+  </si>
+  <si>
+    <t>NIST (National Institute of Standards and Technology)</t>
+  </si>
+  <si>
+    <t>Pentest Report Guideline</t>
+  </si>
+  <si>
+    <t>Selenium with Python</t>
+  </si>
+  <si>
+    <t>https://selenium-python.readthedocs.io/index.html</t>
+  </si>
+  <si>
+    <t>Baiju Muthukadan</t>
+  </si>
+  <si>
+    <t>Python bindings for Selenium</t>
+  </si>
+  <si>
+    <t>http://kagerato.net/articles/software/libraries/jinja-quickstart.html</t>
+  </si>
+  <si>
+    <t>A Quickstart Guide to Using the Jinja2 Template Engine</t>
+  </si>
+  <si>
+    <t>Bryan Hill</t>
+  </si>
+  <si>
+    <t>Tutorial on how to use Jinja2</t>
+  </si>
+  <si>
+    <t>https://github.com/zaproxy/zaproxy/wiki/ApiPython</t>
+  </si>
+  <si>
+    <t>https://www.securify.nl/blog/SFY20150303/automating_security_tests_using_owasp_zap_and_jenkins.html</t>
+  </si>
+  <si>
+    <t>Python Client API</t>
+  </si>
+  <si>
+    <t>Official OWASP ZAP python client API documentation</t>
+  </si>
+  <si>
+    <t>Automating security tests using OWASP ZAP and Jenkins</t>
+  </si>
+  <si>
+    <t>Burak Kelebek</t>
+  </si>
+  <si>
+    <t>Extended script snippets</t>
+  </si>
+  <si>
+    <t>https://gitbookio.gitbooks.io/documentation/content/format/templating.html</t>
+  </si>
+  <si>
+    <t>Gitbook - Templating</t>
+  </si>
+  <si>
+    <t>Integration of Jinja2 within Gitbook</t>
   </si>
 </sst>
 </file>
@@ -188,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,4 +847,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>